--- a/Income/NSC_inc.xlsx
+++ b/Income/NSC_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.346</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.3397</v>
+        <v>0.4321</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.4383</v>
+        <v>0.5277</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.5361</v>
+        <v>0.6186</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.6164</v>
+        <v>0.6974</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.7057</v>
